--- a/Python/World Juniors 2023/ticket allocations.xlsx
+++ b/Python/World Juniors 2023/ticket allocations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Important documents\World Juniors 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC13AA7-6B50-4815-BA84-567314B6EA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ED8639-E20D-4247-B1C8-8CE261C7BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{3E193B83-324E-459E-8BD1-30D6AB331FAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E193B83-324E-459E-8BD1-30D6AB331FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
   <si>
     <t>Mon</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>USports</t>
   </si>
 </sst>
 </file>
@@ -187,46 +193,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -346,6 +313,141 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990033"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,24 +469,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}" name="Table1" displayName="Table1" ref="A1:L17" totalsRowCount="1" dataDxfId="24">
-  <autoFilter ref="A1:L16" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}" name="Table1" displayName="Table1" ref="A1:L19" totalsRowCount="1" dataDxfId="39">
+  <autoFilter ref="A1:L18" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3E627BA1-723E-4DBC-AB52-79595D2F3099}" name="WkDay" dataDxfId="23" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9F671A53-C227-4054-9668-CF5C653EB630}" name="Month" dataDxfId="22" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{16FFBAD1-712D-4DF9-B905-237A33541AF3}" name="Day" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C8B973E1-1466-44BD-9766-6D7D0BC893BC}" name="Year" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2804324C-CD7F-4220-BD47-EDA1B47B21CF}" name="Time" dataDxfId="19" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{D954532F-CE40-4BA3-9651-7798CD6E79AB}" name="Home" dataDxfId="18" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{7352DE8D-3E3A-4589-9996-17259CB83CCF}" name="Away" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{652CE007-11A9-4766-9787-DC9E632705D9}" name="1" dataDxfId="16" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{0F65A4FD-5158-49BF-86F3-C28C1F548B23}" name="2" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{5C365C87-86E3-4518-859C-35F0C76234E4}" name="3" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{12C18ED4-6BAE-4F02-8644-042E815DE35A}" name="4" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
-      <totalsRowFormula>COUNTA(H2:J16)</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{3E627BA1-723E-4DBC-AB52-79595D2F3099}" name="WkDay" dataDxfId="38" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9F671A53-C227-4054-9668-CF5C653EB630}" name="Month" dataDxfId="37" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{16FFBAD1-712D-4DF9-B905-237A33541AF3}" name="Day" dataDxfId="36" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C8B973E1-1466-44BD-9766-6D7D0BC893BC}" name="Year" dataDxfId="35" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{2804324C-CD7F-4220-BD47-EDA1B47B21CF}" name="Time" dataDxfId="34" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{D954532F-CE40-4BA3-9651-7798CD6E79AB}" name="Home" dataDxfId="33" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{7352DE8D-3E3A-4589-9996-17259CB83CCF}" name="Away" dataDxfId="32" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{652CE007-11A9-4766-9787-DC9E632705D9}" name="1" dataDxfId="31" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{0F65A4FD-5158-49BF-86F3-C28C1F548B23}" name="2" dataDxfId="30" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{5C365C87-86E3-4518-859C-35F0C76234E4}" name="3" dataDxfId="29" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{12C18ED4-6BAE-4F02-8644-042E815DE35A}" name="4" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="1">
+      <totalsRowFormula>COUNTA(H2:J18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{951F62AA-9E9D-4063-B25C-3DE03D689CED}" name="5" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
-      <totalsRowFormula>Table1[[#Totals],[4]]/L16</totalsRowFormula>
+    <tableColumn id="12" xr3:uid="{951F62AA-9E9D-4063-B25C-3DE03D689CED}" name="5" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="0">
+      <totalsRowFormula>Table1[[#Totals],[4]]/L18</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -688,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC394E3-BFA2-4CAC-B327-090D59B2A04C}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,25 +848,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>2022</v>
       </c>
       <c r="E2" s="1">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>25</v>
@@ -776,29 +878,27 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>2022</v>
       </c>
       <c r="E3" s="1">
-        <v>1530</v>
+        <v>1200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -806,22 +906,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>2022</v>
       </c>
       <c r="E4" s="1">
-        <v>1930</v>
+        <v>1900</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
@@ -836,77 +936,73 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>2022</v>
       </c>
       <c r="E5" s="1">
-        <v>1200</v>
+        <v>1530</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>2022</v>
       </c>
       <c r="E6" s="1">
-        <v>1700</v>
+        <v>1930</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>2022</v>
@@ -915,7 +1011,7 @@
         <v>1200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
@@ -932,13 +1028,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>2022</v>
@@ -947,10 +1043,10 @@
         <v>1700</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>25</v>
@@ -964,75 +1060,77 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>2022</v>
       </c>
       <c r="E9" s="1">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
         <v>2022</v>
       </c>
       <c r="E10" s="1">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>2022</v>
@@ -1041,32 +1139,26 @@
         <v>1700</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>2022</v>
@@ -1075,10 +1167,10 @@
         <v>1200</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>25</v>
@@ -1094,162 +1186,235 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1">
         <v>2022</v>
       </c>
       <c r="E13" s="1">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1">
         <v>2022</v>
       </c>
       <c r="E14" s="1">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E15" s="1">
         <v>1200</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E16" s="1">
         <v>1700</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1">
-        <f>COUNTA(H2:J16) + COUNTBLANK(H2:J16)</f>
-        <v>45</v>
-      </c>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1200</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1">
-        <f>COUNTA(H2:J16)</f>
-        <v>24</v>
-      </c>
-      <c r="L17" s="1">
-        <f>Table1[[#Totals],[4]]/L16</f>
-        <v>0.53333333333333333</v>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1700</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <f>COUNTA(H2:J18) + COUNTBLANK(H2:J18)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <f>COUNTA(H2:J18)</f>
+        <v>25</v>
+      </c>
+      <c r="L19" s="1">
+        <f>Table1[[#Totals],[4]]/L18</f>
+        <v>0.49019607843137253</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Finland"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Slovakia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Latvia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"Sweden"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"United States"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"Switzerland"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"Canada"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G18">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>"USports"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/World Juniors 2023/ticket allocations.xlsx
+++ b/Python/World Juniors 2023/ticket allocations.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Important documents\World Juniors 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ED8639-E20D-4247-B1C8-8CE261C7BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E193B83-324E-459E-8BD1-30D6AB331FAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,15 +27,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{1DB02027-16F0-44AB-AC22-9153C9423F7C}" keepAlive="1" name="Query - Table4" description="Connection to the 'Table4' query in the workbook." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - Table4" description="Connection to the 'Table4' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table4;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table4]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t>Mon</t>
   </si>
@@ -148,8 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,42 +187,93 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="33">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -313,141 +358,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF990033"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,23 +379,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}" name="Table1" displayName="Table1" ref="A1:L19" totalsRowCount="1" dataDxfId="39">
-  <autoFilter ref="A1:L18" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L19" totalsRowCount="1" dataDxfId="24">
+  <autoFilter ref="A1:L18"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3E627BA1-723E-4DBC-AB52-79595D2F3099}" name="WkDay" dataDxfId="38" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9F671A53-C227-4054-9668-CF5C653EB630}" name="Month" dataDxfId="37" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{16FFBAD1-712D-4DF9-B905-237A33541AF3}" name="Day" dataDxfId="36" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C8B973E1-1466-44BD-9766-6D7D0BC893BC}" name="Year" dataDxfId="35" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2804324C-CD7F-4220-BD47-EDA1B47B21CF}" name="Time" dataDxfId="34" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{D954532F-CE40-4BA3-9651-7798CD6E79AB}" name="Home" dataDxfId="33" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{7352DE8D-3E3A-4589-9996-17259CB83CCF}" name="Away" dataDxfId="32" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{652CE007-11A9-4766-9787-DC9E632705D9}" name="1" dataDxfId="31" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{0F65A4FD-5158-49BF-86F3-C28C1F548B23}" name="2" dataDxfId="30" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{5C365C87-86E3-4518-859C-35F0C76234E4}" name="3" dataDxfId="29" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{12C18ED4-6BAE-4F02-8644-042E815DE35A}" name="4" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="1">
+    <tableColumn id="1" name="WkDay" dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="Month" dataDxfId="22" totalsRowDxfId="10"/>
+    <tableColumn id="3" name="Day" dataDxfId="21" totalsRowDxfId="9"/>
+    <tableColumn id="4" name="Year" dataDxfId="20" totalsRowDxfId="8"/>
+    <tableColumn id="5" name="Time" dataDxfId="19" totalsRowDxfId="7"/>
+    <tableColumn id="6" name="Home" dataDxfId="18" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="Away" dataDxfId="17" totalsRowDxfId="5"/>
+    <tableColumn id="8" name="1" dataDxfId="16" totalsRowDxfId="4"/>
+    <tableColumn id="9" name="2" dataDxfId="15" totalsRowDxfId="3"/>
+    <tableColumn id="10" name="3" dataDxfId="14" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="4" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
       <totalsRowFormula>COUNTA(H2:J18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{951F62AA-9E9D-4063-B25C-3DE03D689CED}" name="5" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="0">
+    <tableColumn id="12" name="5" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
       <totalsRowFormula>Table1[[#Totals],[4]]/L18</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -536,7 +446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -588,7 +498,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -782,21 +692,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC394E3-BFA2-4CAC-B327-090D59B2A04C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -808,7 +718,7 @@
     <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -846,7 +756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -871,12 +781,14 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +816,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +846,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,15 +868,13 @@
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,12 +899,16 @@
       <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +940,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +972,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1004,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1036,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1150,7 +1064,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1098,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1132,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1166,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1274,13 +1188,19 @@
       <c r="G15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1302,13 +1222,15 @@
       <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1258,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1380,40 +1302,40 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1">
         <f>COUNTA(H2:J18)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L19" s="1">
         <f>Table1[[#Totals],[4]]/L18</f>
-        <v>0.49019607843137253</v>
+        <v>0.60784313725490191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"Finland"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"Slovakia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"Latvia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"Sweden"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>"United States"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>"Switzerland"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>"Canada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G18">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"USports"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Python/World Juniors 2023/ticket allocations.xlsx
+++ b/Python/World Juniors 2023/ticket allocations.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Important documents\World Juniors 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED760EE9-B86A-408E-8D78-2F650E7EE354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E193B83-324E-459E-8BD1-30D6AB331FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,15 +33,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - Table4" description="Connection to the 'Table4' query in the workbook." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{1DB02027-16F0-44AB-AC22-9153C9423F7C}" keepAlive="1" name="Query - Table4" description="Connection to the 'Table4' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table4;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table4]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>Mon</t>
   </si>
@@ -137,13 +143,31 @@
   </si>
   <si>
     <t>USports</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>Total $</t>
+  </si>
+  <si>
+    <t>$ / Seat</t>
+  </si>
+  <si>
+    <t>$ / Used Seat</t>
+  </si>
+  <si>
+    <t>Value Used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,16 +181,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9393"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,13 +218,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -189,79 +257,79 @@
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -363,6 +431,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9393"/>
       <color rgb="FFFF6969"/>
       <color rgb="FF990033"/>
     </mruColors>
@@ -379,23 +448,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L19" totalsRowCount="1" dataDxfId="24">
-  <autoFilter ref="A1:L18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}" name="Table1" displayName="Table1" ref="A1:L19" totalsRowCount="1" dataDxfId="24">
+  <autoFilter ref="A1:L18" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="WkDay" dataDxfId="23" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Month" dataDxfId="22" totalsRowDxfId="10"/>
-    <tableColumn id="3" name="Day" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="4" name="Year" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="5" name="Time" dataDxfId="19" totalsRowDxfId="7"/>
-    <tableColumn id="6" name="Home" dataDxfId="18" totalsRowDxfId="6"/>
-    <tableColumn id="7" name="Away" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="8" name="1" dataDxfId="16" totalsRowDxfId="4"/>
-    <tableColumn id="9" name="2" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="10" name="3" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="4" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{3E627BA1-723E-4DBC-AB52-79595D2F3099}" name="WkDay" dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9F671A53-C227-4054-9668-CF5C653EB630}" name="Month" dataDxfId="22" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{16FFBAD1-712D-4DF9-B905-237A33541AF3}" name="Day" dataDxfId="21" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C8B973E1-1466-44BD-9766-6D7D0BC893BC}" name="Year" dataDxfId="20" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{2804324C-CD7F-4220-BD47-EDA1B47B21CF}" name="Time" dataDxfId="19" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{D954532F-CE40-4BA3-9651-7798CD6E79AB}" name="Home" dataDxfId="18" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{7352DE8D-3E3A-4589-9996-17259CB83CCF}" name="Away" dataDxfId="17" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{652CE007-11A9-4766-9787-DC9E632705D9}" name="1" dataDxfId="16" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{0F65A4FD-5158-49BF-86F3-C28C1F548B23}" name="2" dataDxfId="15" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{5C365C87-86E3-4518-859C-35F0C76234E4}" name="3" dataDxfId="14" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{12C18ED4-6BAE-4F02-8644-042E815DE35A}" name="4" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
       <totalsRowFormula>COUNTA(H2:J18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="5" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{951F62AA-9E9D-4063-B25C-3DE03D689CED}" name="5" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
       <totalsRowFormula>Table1[[#Totals],[4]]/L18</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -446,7 +515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -498,7 +567,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -692,21 +761,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC394E3-BFA2-4CAC-B327-090D59B2A04C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -716,9 +785,12 @@
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -756,7 +828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -784,11 +856,11 @@
       <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,13 +882,13 @@
       <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +918,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,7 +946,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,7 +980,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +1012,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1044,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1076,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1108,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,13 +1130,19 @@
       <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +1176,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1132,7 +1210,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1244,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:17" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1199,8 +1277,20 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="N15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1222,15 +1312,28 @@
       <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="N16" s="4">
+        <v>2100</v>
+      </c>
+      <c r="O16" s="4">
+        <f>N16/L18</f>
+        <v>41.176470588235297</v>
+      </c>
+      <c r="P16" s="4">
+        <f>N16/Table1[[#Totals],[4]]</f>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>N16*Table1[[#Totals],[5]]</f>
+        <v>1358.8235294117649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1361,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1302,11 +1405,11 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1">
         <f>COUNTA(H2:J18)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L19" s="1">
         <f>Table1[[#Totals],[4]]/L18</f>
-        <v>0.60784313725490191</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
   </sheetData>

--- a/Python/World Juniors 2023/ticket allocations.xlsx
+++ b/Python/World Juniors 2023/ticket allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Important documents\World Juniors 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED760EE9-B86A-408E-8D78-2F650E7EE354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D737FAC-6F8B-4219-BE8D-6A87D6B0B985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E193B83-324E-459E-8BD1-30D6AB331FAB}"/>
   </bookViews>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
   <si>
     <t>Mon</t>
   </si>
@@ -158,6 +161,42 @@
   </si>
   <si>
     <t>Value Used</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Hayley</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>USPORTS</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>SLOVAKIA</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>FINLAND</t>
+  </si>
+  <si>
+    <t>LATVIA</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -190,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,81 +293,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -426,6 +410,86 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,24 +512,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}" name="Table1" displayName="Table1" ref="A1:L19" totalsRowCount="1" dataDxfId="24">
-  <autoFilter ref="A1:L18" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3E627BA1-723E-4DBC-AB52-79595D2F3099}" name="WkDay" dataDxfId="23" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9F671A53-C227-4054-9668-CF5C653EB630}" name="Month" dataDxfId="22" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{16FFBAD1-712D-4DF9-B905-237A33541AF3}" name="Day" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C8B973E1-1466-44BD-9766-6D7D0BC893BC}" name="Year" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2804324C-CD7F-4220-BD47-EDA1B47B21CF}" name="Time" dataDxfId="19" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{D954532F-CE40-4BA3-9651-7798CD6E79AB}" name="Home" dataDxfId="18" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{7352DE8D-3E3A-4589-9996-17259CB83CCF}" name="Away" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{652CE007-11A9-4766-9787-DC9E632705D9}" name="1" dataDxfId="16" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{0F65A4FD-5158-49BF-86F3-C28C1F548B23}" name="2" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{5C365C87-86E3-4518-859C-35F0C76234E4}" name="3" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{12C18ED4-6BAE-4F02-8644-042E815DE35A}" name="4" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
-      <totalsRowFormula>COUNTA(H2:J18)</totalsRowFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}" name="Table1" displayName="Table1" ref="A1:M19" totalsRowCount="1" dataDxfId="34">
+  <autoFilter ref="A1:M18" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{3E627BA1-723E-4DBC-AB52-79595D2F3099}" name="WkDay" dataDxfId="33" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{9F671A53-C227-4054-9668-CF5C653EB630}" name="Month" dataDxfId="32" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{16FFBAD1-712D-4DF9-B905-237A33541AF3}" name="Day" dataDxfId="31" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{C8B973E1-1466-44BD-9766-6D7D0BC893BC}" name="Year" dataDxfId="30" totalsRowDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{2804324C-CD7F-4220-BD47-EDA1B47B21CF}" name="Time" dataDxfId="29" totalsRowDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{D954532F-CE40-4BA3-9651-7798CD6E79AB}" name="Home" dataDxfId="14" totalsRowDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{7352DE8D-3E3A-4589-9996-17259CB83CCF}" name="Away" dataDxfId="13" totalsRowDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{CC4940D9-B7C3-44EB-854F-3C787D549505}" name="Column1" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{652CE007-11A9-4766-9787-DC9E632705D9}" name="1" dataDxfId="12" totalsRowDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{0F65A4FD-5158-49BF-86F3-C28C1F548B23}" name="2" dataDxfId="11" totalsRowDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{5C365C87-86E3-4518-859C-35F0C76234E4}" name="3" dataDxfId="10" totalsRowDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{12C18ED4-6BAE-4F02-8644-042E815DE35A}" name="4" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="16">
+      <totalsRowFormula>COUNTA(I2:K18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{951F62AA-9E9D-4063-B25C-3DE03D689CED}" name="5" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
-      <totalsRowFormula>Table1[[#Totals],[4]]/L18</totalsRowFormula>
+    <tableColumn id="12" xr3:uid="{951F62AA-9E9D-4063-B25C-3DE03D689CED}" name="5" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="15">
+      <totalsRowFormula>Table1[[#Totals],[4]]/M18</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -769,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC394E3-BFA2-4CAC-B327-090D59B2A04C}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -781,16 +846,18 @@
     <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="0.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -813,22 +880,49 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -844,23 +938,56 @@
       <c r="E2" s="1">
         <v>1400</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="1"/>
+      <c r="P2">
+        <f>COUNTIF(F2:G18, "Canada")</f>
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <f>COUNTIF(F2:G18, "USports")</f>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f>COUNTIF(F2:G18, "Switzerland")</f>
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <f>COUNTIF(F2:G18, "Slovakia")</f>
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <f>COUNTIF(F2:G18, "Sweden")</f>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f>COUNTIF(F2:G18, "United States")</f>
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <f>COUNTIF(F2:G18, "Finland")</f>
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <f>COUNTIF(F2:G18, "Latvia")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,19 +1003,38 @@
       <c r="E3" s="1">
         <v>1200</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="4">
+        <f>COUNTIFS(F2:H18, "Canada", I2:K18, "Avery")</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3">
+        <f>COUNTIF(I2:K18, "Avery")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,21 +1050,44 @@
       <c r="E4" s="1">
         <v>1900</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="4">
+        <f>COUNTIFS(F2:H18, "Canada", I2:K18, "Emily")</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4">
+        <f>COUNTIF(I2:K18, "Emily")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,19 +1103,38 @@
       <c r="E5" s="1">
         <v>1530</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="4">
+        <f>COUNTIFS(I2:K18, "Mom", F2:H18, "Canada")</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5">
+        <f>COUNTIF(I2:K18, "Mom")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,25 +1150,41 @@
       <c r="E6" s="1">
         <v>1930</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6">
+        <f>COUNTIF(I2:K18, "Patrick")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,23 +1200,39 @@
       <c r="E7" s="1">
         <v>1200</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7">
+        <f>COUNTIF(I2:K18, "Robert")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,23 +1248,39 @@
       <c r="E8" s="1">
         <v>1700</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8">
+        <f>COUNTIF(I2:K18, "Alex")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,23 +1296,41 @@
       <c r="E9" s="1">
         <v>1200</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9">
+        <f>COUNTIF(I2:K18, "SOLD")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1092,23 +1346,37 @@
       <c r="E10" s="1">
         <v>1700</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,25 +1392,26 @@
       <c r="E11" s="1">
         <v>1700</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1158,25 +1427,26 @@
       <c r="E12" s="1">
         <v>1200</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1192,25 +1462,26 @@
       <c r="E13" s="1">
         <v>1700</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1226,25 +1497,26 @@
       <c r="E14" s="1">
         <v>1200</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1260,37 +1532,38 @@
       <c r="E15" s="1">
         <v>1200</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="N15" s="3" t="s">
+      <c r="M15" s="1"/>
+      <c r="O15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1306,34 +1579,41 @@
       <c r="E16" s="1">
         <v>1700</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="N16" s="4">
-        <v>2100</v>
-      </c>
-      <c r="O16" s="4">
-        <f>N16/L18</f>
-        <v>41.176470588235297</v>
-      </c>
-      <c r="P16" s="4">
-        <f>N16/Table1[[#Totals],[4]]</f>
-        <v>63.636363636363633</v>
-      </c>
-      <c r="Q16" s="4">
-        <f>N16*Table1[[#Totals],[5]]</f>
-        <v>1358.8235294117649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+      <c r="O16" s="3">
+        <v>2002</v>
+      </c>
+      <c r="P16" s="3">
+        <f>O16/M18</f>
+        <v>39.254901960784316</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>O16/Table1[[#Totals],[4]]</f>
+        <v>50.05</v>
+      </c>
+      <c r="R16" s="3">
+        <f>O16*Table1[[#Totals],[5]]</f>
+        <v>1570.1960784313726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,19 +1629,20 @@
       <c r="E17" s="1">
         <v>1200</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,22 +1658,23 @@
       <c r="E18" s="1">
         <v>1700</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
-        <f>COUNTA(H2:J18) + COUNTBLANK(H2:J18)</f>
+      <c r="K18" s="5"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <f>COUNTA(I2:K18) + COUNTBLANK(I2:K18)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1403,42 +1685,43 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1">
-        <f>COUNTA(H2:J18)</f>
-        <v>33</v>
-      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1">
-        <f>Table1[[#Totals],[4]]/L18</f>
-        <v>0.6470588235294118</v>
+        <f>COUNTA(I2:K18)</f>
+        <v>40</v>
+      </c>
+      <c r="M19" s="1">
+        <f>Table1[[#Totals],[4]]/M18</f>
+        <v>0.78431372549019607</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+  <conditionalFormatting sqref="F1:H1048576">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Finland"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Slovakia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Latvia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Sweden"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"United States"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Switzerland"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Canada"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G18">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:H18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"USports"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Python/World Juniors 2023/ticket allocations.xlsx
+++ b/Python/World Juniors 2023/ticket allocations.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Important documents\World Juniors 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D737FAC-6F8B-4219-BE8D-6A87D6B0B985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E193B83-324E-459E-8BD1-30D6AB331FAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,15 +30,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{1DB02027-16F0-44AB-AC22-9153C9423F7C}" keepAlive="1" name="Query - Table4" description="Connection to the 'Table4' query in the workbook." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - Table4" description="Connection to the 'Table4' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table4;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table4]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="59">
   <si>
     <t>Mon</t>
   </si>
@@ -169,44 +163,68 @@
     <t>Hayley</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>CANADA</t>
-  </si>
-  <si>
-    <t>USPORTS</t>
-  </si>
-  <si>
-    <t>SWITZERLAND</t>
-  </si>
-  <si>
-    <t>SLOVAKIA</t>
-  </si>
-  <si>
-    <t>SWEDEN</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>FINLAND</t>
-  </si>
-  <si>
-    <t>LATVIA</t>
-  </si>
-  <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>% Sold</t>
+  </si>
+  <si>
+    <t>% Used</t>
+  </si>
+  <si>
+    <t>Total Seats</t>
+  </si>
+  <si>
+    <t>Total Seats Unused</t>
+  </si>
+  <si>
+    <t>Total Seats Available</t>
+  </si>
+  <si>
+    <t>Total Games</t>
+  </si>
+  <si>
+    <t>Total Seats Sold</t>
+  </si>
+  <si>
+    <t>% Viewed</t>
+  </si>
+  <si>
+    <t>Used by Us</t>
+  </si>
+  <si>
+    <t>Used by All</t>
+  </si>
+  <si>
+    <t>Value Returned</t>
+  </si>
+  <si>
+    <t>Sell Price</t>
+  </si>
+  <si>
+    <t>Value To Me</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Teams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +246,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +279,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -278,11 +327,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,7 +353,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,17 +362,132 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -410,86 +584,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,24 +606,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}" name="Table1" displayName="Table1" ref="A1:M19" totalsRowCount="1" dataDxfId="34">
-  <autoFilter ref="A1:M18" xr:uid="{59F050D2-9295-4562-ABD8-41474194C7BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M19" totalsRowCount="1" dataDxfId="26">
+  <autoFilter ref="A1:M18"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{3E627BA1-723E-4DBC-AB52-79595D2F3099}" name="WkDay" dataDxfId="33" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{9F671A53-C227-4054-9668-CF5C653EB630}" name="Month" dataDxfId="32" totalsRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{16FFBAD1-712D-4DF9-B905-237A33541AF3}" name="Day" dataDxfId="31" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{C8B973E1-1466-44BD-9766-6D7D0BC893BC}" name="Year" dataDxfId="30" totalsRowDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{2804324C-CD7F-4220-BD47-EDA1B47B21CF}" name="Time" dataDxfId="29" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{D954532F-CE40-4BA3-9651-7798CD6E79AB}" name="Home" dataDxfId="14" totalsRowDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{7352DE8D-3E3A-4589-9996-17259CB83CCF}" name="Away" dataDxfId="13" totalsRowDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{CC4940D9-B7C3-44EB-854F-3C787D549505}" name="Column1" dataDxfId="0" totalsRowDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{652CE007-11A9-4766-9787-DC9E632705D9}" name="1" dataDxfId="12" totalsRowDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{0F65A4FD-5158-49BF-86F3-C28C1F548B23}" name="2" dataDxfId="11" totalsRowDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{5C365C87-86E3-4518-859C-35F0C76234E4}" name="3" dataDxfId="10" totalsRowDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{12C18ED4-6BAE-4F02-8644-042E815DE35A}" name="4" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="16">
+    <tableColumn id="1" name="WkDay" dataDxfId="25" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="Month" dataDxfId="24" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="Day" dataDxfId="23" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="Year" dataDxfId="22" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Time" dataDxfId="21" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="Home" dataDxfId="20" totalsRowDxfId="7"/>
+    <tableColumn id="7" name="Away" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="13" name="Column1" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="8" name="1" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="9" name="2" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="10" name="3" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="4" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="1">
       <totalsRowFormula>COUNTA(I2:K18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{951F62AA-9E9D-4063-B25C-3DE03D689CED}" name="5" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="15">
+    <tableColumn id="12" name="5" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="0">
       <totalsRowFormula>Table1[[#Totals],[4]]/M18</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -580,7 +674,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -632,7 +726,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -826,38 +920,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC394E3-BFA2-4CAC-B327-090D59B2A04C}">
-  <dimension ref="A1:X19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="0.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.95" customHeight="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -880,7 +985,7 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
         <v>22</v>
@@ -897,32 +1002,38 @@
       <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -938,56 +1049,66 @@
       <c r="E2" s="1">
         <v>1400</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="P2">
+      <c r="O2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="9">
         <f>COUNTIF(F2:G18, "Canada")</f>
         <v>4</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="9">
         <f>COUNTIF(F2:G18, "USports")</f>
         <v>2</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="9">
         <f>COUNTIF(F2:G18, "Switzerland")</f>
         <v>5</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="9">
         <f>COUNTIF(F2:G18, "Slovakia")</f>
         <v>5</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="9">
         <f>COUNTIF(F2:G18, "Sweden")</f>
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="9">
         <f>COUNTIF(F2:G18, "United States")</f>
         <v>5</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="9">
         <f>COUNTIF(F2:G18, "Finland")</f>
         <v>4</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="9">
         <f>COUNTIF(F2:G18, "Latvia")</f>
         <v>4</v>
       </c>
+      <c r="X2" s="13">
+        <f>SUM(P2:W2) / 2</f>
+        <v>15</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,38 +1124,60 @@
       <c r="E3" s="1">
         <v>1200</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="O3" t="s">
+      <c r="O3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="4">
-        <f>COUNTIFS(F2:H18, "Canada", I2:K18, "Avery")</f>
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3">
+      <c r="P3" s="10">
+        <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Avery") + COUNTIFS(F2:F18, "Canada", J2:J18, "Avery") + COUNTIFS(F2:F18, "Canada", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Avery") + COUNTIFS(G2:G18, "Canada", J2:J18, "Avery") + COUNTIFS(G2:G18, "Canada", K2:K18, "Avery"))</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="10">
+        <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Avery") + COUNTIFS(F2:F18, "USports", J2:J18, "Avery") + COUNTIFS(F2:F18, "USports", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Avery") + COUNTIFS(G2:G18, "USports", J2:J18, "Avery") + COUNTIFS(G2:G18, "USports", K2:K18, "Avery"))</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="10">
+        <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Avery") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Avery") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Avery") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Avery") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Avery"))</f>
+        <v>5</v>
+      </c>
+      <c r="S3" s="10">
+        <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Avery") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Avery") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Avery") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Avery") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Avery"))</f>
+        <v>4</v>
+      </c>
+      <c r="T3" s="10">
+        <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Avery") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Avery") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Avery") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Avery") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Avery"))</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Avery") + COUNTIFS(F2:F18, "United States", J2:J18, "Avery") + COUNTIFS(F2:F18, "United States", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Avery") + COUNTIFS(G2:G18, "United States", J2:J18, "Avery") + COUNTIFS(G2:G18, "United States", K2:K18, "Avery"))</f>
+        <v>2</v>
+      </c>
+      <c r="V3" s="10">
+        <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Avery") + COUNTIFS(F2:F18, "Finland", J2:J18, "Avery") + COUNTIFS(F2:F18, "Finland", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Avery") + COUNTIFS(G2:G18, "Finland", J2:J18, "Avery") + COUNTIFS(G2:G18, "Finland", K2:K18, "Avery"))</f>
+        <v>3</v>
+      </c>
+      <c r="W3" s="10">
+        <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Avery") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Avery") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Avery") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Avery") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Avery"))</f>
+        <v>4</v>
+      </c>
+      <c r="X3" s="9">
         <f>COUNTIF(I2:K18, "Avery")</f>
         <v>13</v>
       </c>
+      <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,44 +1193,65 @@
       <c r="E4" s="1">
         <v>1900</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="O4" t="s">
+      <c r="O4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="4">
-        <f>COUNTIFS(F2:H18, "Canada", I2:K18, "Emily")</f>
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4">
+      <c r="P4" s="10">
+        <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Emily") + COUNTIFS(F2:F18, "Canada", J2:J18, "Emily") + COUNTIFS(F2:F18, "Canada", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Emily") + COUNTIFS(G2:G18, "Canada", J2:J18, "Emily") + COUNTIFS(G2:G18, "Canada", K2:K18, "Emily"))</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="10">
+        <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Emily") + COUNTIFS(F2:F18, "USports", J2:J18, "Emily") + COUNTIFS(F2:F18, "USports", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Emily") + COUNTIFS(G2:G18, "USports", J2:J18, "Emily") + COUNTIFS(G2:G18, "USports", K2:K18, "Emily"))</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="10">
+        <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Emily") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Emily") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Emily") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Emily") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Emily"))</f>
+        <v>3</v>
+      </c>
+      <c r="S4" s="10">
+        <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Emily") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Emily") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Emily") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Emily") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Emily"))</f>
+        <v>3</v>
+      </c>
+      <c r="T4" s="10">
+        <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Emily") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Emily") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Emily") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Emily") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Emily"))</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Emily") + COUNTIFS(F2:F18, "United States", J2:J18, "Emily") + COUNTIFS(F2:F18, "United States", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Emily") + COUNTIFS(G2:G18, "United States", J2:J18, "Emily") + COUNTIFS(G2:G18, "United States", K2:K18, "Emily"))</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Emily") + COUNTIFS(F2:F18, "Finland", J2:J18, "Emily") + COUNTIFS(F2:F18, "Finland", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Emily") + COUNTIFS(G2:G18, "Finland", J2:J18, "Emily") + COUNTIFS(G2:G18, "Finland", K2:K18, "Emily"))</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="10">
+        <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Emily") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Emily") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Emily") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Emily") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Emily"))</f>
+        <v>2</v>
+      </c>
+      <c r="X4" s="9">
         <f>COUNTIF(I2:K18, "Emily")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1103,38 +1267,63 @@
       <c r="E5" s="1">
         <v>1530</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="6"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" t="s">
+      <c r="O5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="4">
-        <f>COUNTIFS(I2:K18, "Mom", F2:H18, "Canada")</f>
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5">
+      <c r="P5" s="10">
+        <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Mom") + COUNTIFS(F2:F18, "Canada", J2:J18, "Mom") + COUNTIFS(F2:F18, "Canada", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Mom") + COUNTIFS(G2:G18, "Canada", J2:J18, "Mom") + COUNTIFS(G2:G18, "Canada", K2:K18, "Mom"))</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Mom") + COUNTIFS(F2:F18, "USports", J2:J18, "Mom") + COUNTIFS(F2:F18, "USports", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Mom") + COUNTIFS(G2:G18, "USports", J2:J18, "Mom") + COUNTIFS(G2:G18, "USports", K2:K18, "Mom"))</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Mom") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Mom") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Mom") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Mom") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Mom"))</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="10">
+        <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Mom") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Mom") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Mom") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Mom") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Mom"))</f>
+        <v>3</v>
+      </c>
+      <c r="T5" s="10">
+        <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Mom") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Mom") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Mom") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Mom") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Mom"))</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Mom") + COUNTIFS(F2:F18, "United States", J2:J18, "Mom") + COUNTIFS(F2:F18, "United States", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Mom") + COUNTIFS(G2:G18, "United States", J2:J18, "Mom") + COUNTIFS(G2:G18, "United States", K2:K18, "Mom"))</f>
+        <v>1</v>
+      </c>
+      <c r="V5" s="10">
+        <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Mom") + COUNTIFS(F2:F18, "Finland", J2:J18, "Mom") + COUNTIFS(F2:F18, "Finland", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Mom") + COUNTIFS(G2:G18, "Finland", J2:J18, "Mom") + COUNTIFS(G2:G18, "Finland", K2:K18, "Mom"))</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="10">
+        <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Mom") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Mom") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Mom") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Mom") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Mom"))</f>
+        <v>2</v>
+      </c>
+      <c r="X5" s="9">
         <f>COUNTIF(I2:K18, "Mom")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1150,13 +1339,13 @@
       <c r="E6" s="1">
         <v>1930</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1168,23 +1357,47 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="O6" t="s">
+      <c r="O6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6">
+      <c r="P6" s="10">
+        <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Canada", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Canada", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Canada", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Canada", K2:K18, "Patrick"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Patrick") + COUNTIFS(F2:F18, "USports", J2:J18, "Patrick") + COUNTIFS(F2:F18, "USports", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Patrick") + COUNTIFS(G2:G18, "USports", J2:J18, "Patrick") + COUNTIFS(G2:G18, "USports", K2:K18, "Patrick"))</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Patrick"))</f>
+        <v>2</v>
+      </c>
+      <c r="S6" s="10">
+        <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Patrick"))</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="10">
+        <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Patrick"))</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Patrick") + COUNTIFS(F2:F18, "United States", J2:J18, "Patrick") + COUNTIFS(F2:F18, "United States", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Patrick") + COUNTIFS(G2:G18, "United States", J2:J18, "Patrick") + COUNTIFS(G2:G18, "United States", K2:K18, "Patrick"))</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="10">
+        <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Finland", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Finland", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Finland", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Finland", K2:K18, "Patrick"))</f>
+        <v>2</v>
+      </c>
+      <c r="W6" s="10">
+        <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Patrick"))</f>
+        <v>2</v>
+      </c>
+      <c r="X6" s="9">
         <f>COUNTIF(I2:K18, "Patrick")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.95" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,39 +1413,63 @@
       <c r="E7" s="1">
         <v>1200</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="O7" t="s">
+      <c r="O7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7">
+      <c r="P7" s="10">
+        <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Robert") + COUNTIFS(F2:F18, "Canada", J2:J18, "Robert") + COUNTIFS(F2:F18, "Canada", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Robert") + COUNTIFS(G2:G18, "Canada", J2:J18, "Robert") + COUNTIFS(G2:G18, "Canada", K2:K18, "Robert"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Robert") + COUNTIFS(F2:F18, "USports", J2:J18, "Robert") + COUNTIFS(F2:F18, "USports", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Robert") + COUNTIFS(G2:G18, "USports", J2:J18, "Robert") + COUNTIFS(G2:G18, "USports", K2:K18, "Robert"))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
+        <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Robert") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Robert") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Robert") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Robert") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Robert"))</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="10">
+        <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Robert") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Robert") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Robert") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Robert") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Robert"))</f>
+        <v>1</v>
+      </c>
+      <c r="T7" s="10">
+        <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Robert") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Robert") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Robert") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Robert") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Robert"))</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Robert") + COUNTIFS(F2:F18, "United States", J2:J18, "Robert") + COUNTIFS(F2:F18, "United States", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Robert") + COUNTIFS(G2:G18, "United States", J2:J18, "Robert") + COUNTIFS(G2:G18, "United States", K2:K18, "Robert"))</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Robert") + COUNTIFS(F2:F18, "Finland", J2:J18, "Robert") + COUNTIFS(F2:F18, "Finland", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Robert") + COUNTIFS(G2:G18, "Finland", J2:J18, "Robert") + COUNTIFS(G2:G18, "Finland", K2:K18, "Robert"))</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="10">
+        <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Robert") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Robert") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Robert") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Robert") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Robert"))</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="9">
         <f>COUNTIF(I2:K18, "Robert")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,39 +1485,63 @@
       <c r="E8" s="1">
         <v>1700</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="O8" t="s">
+      <c r="O8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8">
+      <c r="P8" s="10">
+        <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Alex") + COUNTIFS(F2:F18, "Canada", J2:J18, "Alex") + COUNTIFS(F2:F18, "Canada", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Alex") + COUNTIFS(G2:G18, "Canada", J2:J18, "Alex") + COUNTIFS(G2:G18, "Canada", K2:K18, "Alex"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Alex") + COUNTIFS(F2:F18, "USports", J2:J18, "Alex") + COUNTIFS(F2:F18, "USports", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Alex") + COUNTIFS(G2:G18, "USports", J2:J18, "Alex") + COUNTIFS(G2:G18, "USports", K2:K18, "Alex"))</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Alex") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Alex") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Alex") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Alex") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Alex"))</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Alex") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Alex") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Alex") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Alex") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Alex"))</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Alex") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Alex") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Alex") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Alex") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Alex"))</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Alex") + COUNTIFS(F2:F18, "United States", J2:J18, "Alex") + COUNTIFS(F2:F18, "United States", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Alex") + COUNTIFS(G2:G18, "United States", J2:J18, "Alex") + COUNTIFS(G2:G18, "United States", K2:K18, "Alex"))</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Alex") + COUNTIFS(F2:F18, "Finland", J2:J18, "Alex") + COUNTIFS(F2:F18, "Finland", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Alex") + COUNTIFS(G2:G18, "Finland", J2:J18, "Alex") + COUNTIFS(G2:G18, "Finland", K2:K18, "Alex"))</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Alex") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Alex") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Alex") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Alex") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Alex"))</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
         <f>COUNTIF(I2:K18, "Alex")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.95" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1296,41 +1557,65 @@
       <c r="E9" s="1">
         <v>1200</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9">
-        <f>COUNTIF(I2:K18, "SOLD")</f>
-        <v>6</v>
+      <c r="O9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="1">
+        <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Hayley") + COUNTIFS(F2:F18, "Canada", J2:J18, "Hayley") + COUNTIFS(F2:F18, "Canada", K2:K18, "Hayley")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Hayley") + COUNTIFS(G2:G18, "Canada", J2:J18, "Hayley") + COUNTIFS(G2:G18, "Canada", K2:K18, "Hayley"))</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Hayley") + COUNTIFS(F2:F18, "USports", J2:J18, "Hayley") + COUNTIFS(F2:F18, "USports", K2:K18, "Hayley")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Hayley") + COUNTIFS(G2:G18, "USports", J2:J18, "Hayley") + COUNTIFS(G2:G18, "USports", K2:K18, "Hayley"))</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Hayley") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Hayley") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Hayley")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Hayley") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Hayley") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Hayley"))</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Hayley") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Hayley") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Hayley")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Hayley") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Hayley") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Hayley"))</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Hayley") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Hayley") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Hayley")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Hayley") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Hayley") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Hayley"))</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Hayley") + COUNTIFS(F2:F18, "United States", J2:J18, "Hayley") + COUNTIFS(F2:F18, "United States", K2:K18, "Hayley")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Hayley") + COUNTIFS(G2:G18, "United States", J2:J18, "Hayley") + COUNTIFS(G2:G18, "United States", K2:K18, "Hayley"))</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Hayley") + COUNTIFS(F2:F18, "Finland", J2:J18, "Hayley") + COUNTIFS(F2:F18, "Finland", K2:K18, "Hayley")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Hayley") + COUNTIFS(G2:G18, "Finland", J2:J18, "Hayley") + COUNTIFS(G2:G18, "Finland", K2:K18, "Hayley"))</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Hayley") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Hayley") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Hayley")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Hayley") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Hayley") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Hayley"))</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <f>COUNTIF(I2:K18, "Hayley")</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.95" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1346,37 +1631,68 @@
       <c r="E10" s="1">
         <v>1700</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="O10" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+      <c r="O10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="10">
+        <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Canada", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Canada", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Canada", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Canada", K2:K18, "SOLD"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <f>(COUNTIFS(F2:F18, "USports", I2:I18, "SOLD") + COUNTIFS(F2:F18, "USports", J2:J18, "SOLD") + COUNTIFS(F2:F18, "USports", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "USports", I2:I18, "SOLD") + COUNTIFS(G2:G18, "USports", J2:J18, "SOLD") + COUNTIFS(G2:G18, "USports", K2:K18, "SOLD"))</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "SOLD"))</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "SOLD"))</f>
+        <v>3</v>
+      </c>
+      <c r="T10" s="10">
+        <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Sweden", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Sweden", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Sweden", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Sweden", K2:K18, "SOLD"))</f>
+        <v>2</v>
+      </c>
+      <c r="U10" s="10">
+        <f>(COUNTIFS(F2:F18, "United States", I2:I18, "SOLD") + COUNTIFS(F2:F18, "United States", J2:J18, "SOLD") + COUNTIFS(F2:F18, "United States", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "United States", I2:I18, "SOLD") + COUNTIFS(G2:G18, "United States", J2:J18, "SOLD") + COUNTIFS(G2:G18, "United States", K2:K18, "SOLD"))</f>
+        <v>8</v>
+      </c>
+      <c r="V10" s="10">
+        <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Finland", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Finland", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Finland", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Finland", K2:K18, "SOLD"))</f>
+        <v>3</v>
+      </c>
+      <c r="W10" s="10">
+        <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Latvia", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Latvia", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Latvia", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Latvia", K2:K18, "SOLD"))</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="13">
+        <f>COUNTIF(I2:K18, "SOLD")</f>
+        <v>8</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.95" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1392,26 +1708,68 @@
       <c r="E11" s="1">
         <v>1700</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+      <c r="O11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="1">
+        <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "") + COUNTIFS(F2:F18, "Canada", J2:J18, "") + COUNTIFS(F2:F18, "Canada", K2:K18, "")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "") + COUNTIFS(G2:G18, "Canada", J2:J18, "") + COUNTIFS(G2:G18, "Canada", K2:K18, ""))</f>
+        <v>4</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>(COUNTIFS(F2:F18, "USports", I2:I18, "") + COUNTIFS(F2:F18, "USports", J2:J18, "") + COUNTIFS(F2:F18, "USports", K2:K18, "")) + (COUNTIFS(G2:G18, "USports", I2:I18, "") + COUNTIFS(G2:G18, "USports", J2:J18, "") + COUNTIFS(G2:G18, "USports", K2:K18, ""))</f>
+        <v>4</v>
+      </c>
+      <c r="R11" s="1">
+        <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "") + COUNTIFS(G2:G18, "Switzerland", K2:K18, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "") + COUNTIFS(G2:G18, "Slovakia", K2:K18, ""))</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "") + COUNTIFS(F2:F18, "Sweden", J2:J18, "") + COUNTIFS(F2:F18, "Sweden", K2:K18, "")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "") + COUNTIFS(G2:G18, "Sweden", J2:J18, "") + COUNTIFS(G2:G18, "Sweden", K2:K18, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <f>(COUNTIFS(F2:F18, "United States", I2:I18, "") + COUNTIFS(F2:F18, "United States", J2:J18, "") + COUNTIFS(F2:F18, "United States", K2:K18, "")) + (COUNTIFS(G2:G18, "United States", I2:I18, "") + COUNTIFS(G2:G18, "United States", J2:J18, "") + COUNTIFS(G2:G18, "United States", K2:K18, ""))</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="1">
+        <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "") + COUNTIFS(F2:F18, "Finland", J2:J18, "") + COUNTIFS(F2:F18, "Finland", K2:K18, "")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "") + COUNTIFS(G2:G18, "Finland", J2:J18, "") + COUNTIFS(G2:G18, "Finland", K2:K18, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "") + COUNTIFS(F2:F18, "Latvia", J2:J18, "") + COUNTIFS(F2:F18, "Latvia", K2:K18, "")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "") + COUNTIFS(G2:G18, "Latvia", J2:J18, "") + COUNTIFS(G2:G18, "Latvia", K2:K18, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="13">
+        <f>COUNTBLANK(I2:K18)</f>
+        <v>9</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.95" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1427,26 +1785,68 @@
       <c r="E12" s="1">
         <v>1200</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
+      <c r="O12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" ref="P12:X12" si="0">SUM(P3:P11)</f>
+        <v>12</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="X12" s="14">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.95" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1462,26 +1862,62 @@
       <c r="E13" s="1">
         <v>1700</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+      <c r="O13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" ref="P13:W13" si="1">P10/P12</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="T13" s="18">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U13" s="18">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="V13" s="18">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="W13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="8"/>
     </row>
-    <row r="14" spans="1:24" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1497,26 +1933,65 @@
       <c r="E14" s="1">
         <v>1200</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
+      <c r="O14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" ref="P14:W14" si="2">(P12-P10) / P12</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="T14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="V14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="W14" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X14" s="8"/>
+      <c r="Y14" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="15.95" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1532,38 +2007,65 @@
       <c r="E15" s="1">
         <v>1200</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="O15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>38</v>
+      <c r="O15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" ref="P15:W15" si="3">(P12-P11) / P12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="S15" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="W15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="X15" s="8"/>
+      <c r="Y15" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15.95" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1579,41 +2081,36 @@
       <c r="E16" s="1">
         <v>1700</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="O16" s="3">
-        <v>2002</v>
-      </c>
-      <c r="P16" s="3">
-        <f>O16/M18</f>
-        <v>39.254901960784316</v>
-      </c>
-      <c r="Q16" s="3">
-        <f>O16/Table1[[#Totals],[4]]</f>
-        <v>50.05</v>
-      </c>
-      <c r="R16" s="3">
-        <f>O16*Table1[[#Totals],[5]]</f>
-        <v>1570.1960784313726</v>
-      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.95" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,20 +2126,20 @@
       <c r="E17" s="1">
         <v>1200</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15.95" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1658,23 +2155,23 @@
       <c r="E18" s="1">
         <v>1700</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
         <f>COUNTA(I2:K18) + COUNTBLANK(I2:K18)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15.95" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1688,40 +2185,114 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1">
         <f>COUNTA(I2:K18)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M19" s="1">
         <f>Table1[[#Totals],[4]]/M18</f>
-        <v>0.78431372549019607</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
+    <row r="20" spans="1:21" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O21" s="3">
+        <v>2002</v>
+      </c>
+      <c r="P21" s="3">
+        <f>O21/M18</f>
+        <v>39.254901960784316</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>O21/Table1[[#Totals],[4]]</f>
+        <v>47.666666666666664</v>
+      </c>
+      <c r="R21" s="3">
+        <f>O21*Table1[[#Totals],[5]]</f>
+        <v>1648.705882352941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O22" s="3">
+        <f>O21-S24</f>
+        <v>1682</v>
+      </c>
+      <c r="P22" s="3">
+        <f>O22/M18</f>
+        <v>32.980392156862742</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>O22/Table1[[#Totals],[4]]</f>
+        <v>40.047619047619051</v>
+      </c>
+      <c r="R22" s="3">
+        <f>O22*Table1[[#Totals],[5]]</f>
+        <v>1385.1764705882351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="S23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="S24" s="3">
+        <f>COUNTIF(I2:K18, "SOLD") *T24</f>
+        <v>320</v>
+      </c>
+      <c r="T24" s="3">
+        <v>40</v>
+      </c>
+      <c r="U24" s="3">
+        <f>O21-S24</f>
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.95" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:H1048576">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+  <conditionalFormatting sqref="F1:H1048576 P1:W1">
+    <cfRule type="cellIs" dxfId="34" priority="66" operator="equal">
       <formula>"Finland"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="67" operator="equal">
       <formula>"Slovakia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="68" operator="equal">
       <formula>"Latvia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="69" operator="equal">
       <formula>"Sweden"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="70" operator="equal">
       <formula>"United States"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="71" operator="equal">
       <formula>"Switzerland"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="72" operator="equal">
       <formula>"Canada"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:H18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:H18 P1:W1">
+    <cfRule type="cellIs" dxfId="27" priority="65" operator="equal">
       <formula>"USports"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Python/World Juniors 2023/ticket allocations.xlsx
+++ b/Python/World Juniors 2023/ticket allocations.xlsx
@@ -1,44 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\World Juniors 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD1574-C1DC-4B6D-854D-228BD9B53E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - Table4" description="Connection to the 'Table4' query in the workbook." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - Table4" description="Connection to the 'Table4' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table4;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table4]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
   <si>
     <t>Mon</t>
   </si>
@@ -215,16 +210,25 @@
   </si>
   <si>
     <t>Teams</t>
+  </si>
+  <si>
+    <t>Value Lost</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +257,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +315,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -342,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,7 +380,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,10 +399,10 @@
     <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -394,100 +411,97 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -584,6 +598,147 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990033"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,24 +761,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M19" totalsRowCount="1" dataDxfId="26">
-  <autoFilter ref="A1:M18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M19" totalsRowCount="1" dataDxfId="44">
+  <autoFilter ref="A1:M18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="WkDay" dataDxfId="25" totalsRowDxfId="12"/>
-    <tableColumn id="2" name="Month" dataDxfId="24" totalsRowDxfId="11"/>
-    <tableColumn id="3" name="Day" dataDxfId="23" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="Year" dataDxfId="22" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Time" dataDxfId="21" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Home" dataDxfId="20" totalsRowDxfId="7"/>
-    <tableColumn id="7" name="Away" dataDxfId="19" totalsRowDxfId="6"/>
-    <tableColumn id="13" name="Column1" dataDxfId="18" totalsRowDxfId="5"/>
-    <tableColumn id="8" name="1" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="9" name="2" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="10" name="3" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="11" name="4" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="WkDay" dataDxfId="43" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Month" dataDxfId="42" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Day" dataDxfId="41" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Year" dataDxfId="40" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Time" dataDxfId="3" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Home" dataDxfId="2" totalsRowDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Away" dataDxfId="0" totalsRowDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column1" dataDxfId="1" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1" dataDxfId="39" totalsRowDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2" dataDxfId="38" totalsRowDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="3" dataDxfId="37" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="4" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="5">
       <totalsRowFormula>COUNTA(I2:K18)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="5" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="5" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="4">
       <totalsRowFormula>Table1[[#Totals],[4]]/M18</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -674,7 +829,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -726,7 +881,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -920,21 +1075,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -952,17 +1107,16 @@
     <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.140625" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" customWidth="1"/>
-    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" customWidth="1"/>
     <col min="26" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.95" customHeight="1">
+    <row r="1" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1002,38 +1156,41 @@
       <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.95" customHeight="1">
+    <row r="2" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1049,10 +1206,10 @@
       <c r="E2" s="1">
         <v>1400</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="19" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="4"/>
@@ -1065,50 +1222,54 @@
       <c r="K2" s="6"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <f>COUNTIF(F2:G18, "Canada")</f>
         <v>4</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="8">
         <f>COUNTIF(F2:G18, "USports")</f>
         <v>2</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="8">
         <f>COUNTIF(F2:G18, "Switzerland")</f>
         <v>5</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="8">
         <f>COUNTIF(F2:G18, "Slovakia")</f>
         <v>5</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="8">
         <f>COUNTIF(F2:G18, "Sweden")</f>
-        <v>1</v>
-      </c>
-      <c r="U2" s="9">
+        <v>2</v>
+      </c>
+      <c r="U2" s="8">
         <f>COUNTIF(F2:G18, "United States")</f>
+        <v>6</v>
+      </c>
+      <c r="V2" s="8">
+        <f>COUNTIF(F2:G18, "Finland")</f>
         <v>5</v>
       </c>
-      <c r="V2" s="9">
-        <f>COUNTIF(F2:G18, "Finland")</f>
-        <v>4</v>
-      </c>
-      <c r="W2" s="9">
+      <c r="W2" s="8">
         <f>COUNTIF(F2:G18, "Latvia")</f>
         <v>4</v>
       </c>
-      <c r="X2" s="13">
-        <f>SUM(P2:W2) / 2</f>
-        <v>15</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="X2" s="20">
+        <f>COUNTIF(F2:G18, "Germany")</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="12">
+        <f>SUM(P2:X2) / 2</f>
+        <v>17</v>
+      </c>
+      <c r="Z2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.95" customHeight="1">
+    <row r="3" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,10 +1285,10 @@
       <c r="E3" s="1">
         <v>1200</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="19" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="4"/>
@@ -1136,48 +1297,51 @@
       <c r="K3" s="6"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Avery") + COUNTIFS(F2:F18, "Canada", J2:J18, "Avery") + COUNTIFS(F2:F18, "Canada", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Avery") + COUNTIFS(G2:G18, "Canada", J2:J18, "Avery") + COUNTIFS(G2:G18, "Canada", K2:K18, "Avery"))</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Avery") + COUNTIFS(F2:F18, "USports", J2:J18, "Avery") + COUNTIFS(F2:F18, "USports", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Avery") + COUNTIFS(G2:G18, "USports", J2:J18, "Avery") + COUNTIFS(G2:G18, "USports", K2:K18, "Avery"))</f>
         <v>1</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Avery") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Avery") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Avery") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Avery") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Avery"))</f>
         <v>5</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="9">
         <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Avery") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Avery") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Avery") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Avery") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Avery"))</f>
         <v>4</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="9">
         <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Avery") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Avery") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Avery") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Avery") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Avery"))</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="10">
+        <v>1</v>
+      </c>
+      <c r="U3" s="9">
         <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Avery") + COUNTIFS(F2:F18, "United States", J2:J18, "Avery") + COUNTIFS(F2:F18, "United States", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Avery") + COUNTIFS(G2:G18, "United States", J2:J18, "Avery") + COUNTIFS(G2:G18, "United States", K2:K18, "Avery"))</f>
-        <v>2</v>
-      </c>
-      <c r="V3" s="10">
+        <v>3</v>
+      </c>
+      <c r="V3" s="9">
         <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Avery") + COUNTIFS(F2:F18, "Finland", J2:J18, "Avery") + COUNTIFS(F2:F18, "Finland", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Avery") + COUNTIFS(G2:G18, "Finland", J2:J18, "Avery") + COUNTIFS(G2:G18, "Finland", K2:K18, "Avery"))</f>
-        <v>3</v>
-      </c>
-      <c r="W3" s="10">
+        <v>4</v>
+      </c>
+      <c r="W3" s="9">
         <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Avery") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Avery") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Avery") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Avery") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Avery"))</f>
         <v>4</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="21">
+        <f>(COUNTIFS(F2:F18, "Germany", I2:I18, "Avery") + COUNTIFS(F2:F18, "Germany", J2:J18, "Avery") + COUNTIFS(F2:F18, "Germany", K2:K18, "Avery")) + (COUNTIFS(G2:G18, "Germany", I2:I18, "Avery") + COUNTIFS(G2:G18, "Germany", J2:J18, "Avery") + COUNTIFS(G2:G18, "Germany", K2:K18, "Avery"))</f>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="8">
         <f>COUNTIF(I2:K18, "Avery")</f>
         <v>13</v>
       </c>
-      <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="15.95" customHeight="1">
+    <row r="4" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,10 +1357,10 @@
       <c r="E4" s="1">
         <v>1900</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="4"/>
@@ -1211,47 +1375,51 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Emily") + COUNTIFS(F2:F18, "Canada", J2:J18, "Emily") + COUNTIFS(F2:F18, "Canada", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Emily") + COUNTIFS(G2:G18, "Canada", J2:J18, "Emily") + COUNTIFS(G2:G18, "Canada", K2:K18, "Emily"))</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Emily") + COUNTIFS(F2:F18, "USports", J2:J18, "Emily") + COUNTIFS(F2:F18, "USports", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Emily") + COUNTIFS(G2:G18, "USports", J2:J18, "Emily") + COUNTIFS(G2:G18, "USports", K2:K18, "Emily"))</f>
         <v>1</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Emily") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Emily") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Emily") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Emily") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Emily"))</f>
         <v>3</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Emily") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Emily") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Emily") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Emily") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Emily"))</f>
         <v>3</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="9">
         <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Emily") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Emily") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Emily") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Emily") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Emily"))</f>
         <v>0</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="9">
         <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Emily") + COUNTIFS(F2:F18, "United States", J2:J18, "Emily") + COUNTIFS(F2:F18, "United States", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Emily") + COUNTIFS(G2:G18, "United States", J2:J18, "Emily") + COUNTIFS(G2:G18, "United States", K2:K18, "Emily"))</f>
         <v>1</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="9">
         <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Emily") + COUNTIFS(F2:F18, "Finland", J2:J18, "Emily") + COUNTIFS(F2:F18, "Finland", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Emily") + COUNTIFS(G2:G18, "Finland", J2:J18, "Emily") + COUNTIFS(G2:G18, "Finland", K2:K18, "Emily"))</f>
         <v>1</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="9">
         <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Emily") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Emily") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Emily") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Emily") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Emily"))</f>
         <v>2</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="21">
+        <f>(COUNTIFS(F2:F18, "Germany", I2:I18, "Emily") + COUNTIFS(F2:F18, "Germany", J2:J18, "Emily") + COUNTIFS(F2:F18, "Germany", K2:K18, "Emily")) + (COUNTIFS(G2:G18, "Germany", I2:I18, "Emily") + COUNTIFS(G2:G18, "Germany", J2:J18, "Emily") + COUNTIFS(G2:G18, "Germany", K2:K18, "Emily"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8">
         <f>COUNTIF(I2:K18, "Emily")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.95" customHeight="1">
+    <row r="5" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1267,63 +1435,67 @@
       <c r="E5" s="1">
         <v>1530</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="22" t="s">
         <v>34</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Mom") + COUNTIFS(F2:F18, "Canada", J2:J18, "Mom") + COUNTIFS(F2:F18, "Canada", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Mom") + COUNTIFS(G2:G18, "Canada", J2:J18, "Mom") + COUNTIFS(G2:G18, "Canada", K2:K18, "Mom"))</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Mom") + COUNTIFS(F2:F18, "USports", J2:J18, "Mom") + COUNTIFS(F2:F18, "USports", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Mom") + COUNTIFS(G2:G18, "USports", J2:J18, "Mom") + COUNTIFS(G2:G18, "USports", K2:K18, "Mom"))</f>
         <v>0</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="9">
         <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Mom") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Mom") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Mom") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Mom") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Mom"))</f>
         <v>2</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="9">
         <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Mom") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Mom") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Mom") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Mom") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Mom"))</f>
         <v>3</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="9">
         <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Mom") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Mom") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Mom") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Mom") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Mom"))</f>
         <v>0</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Mom") + COUNTIFS(F2:F18, "United States", J2:J18, "Mom") + COUNTIFS(F2:F18, "United States", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Mom") + COUNTIFS(G2:G18, "United States", J2:J18, "Mom") + COUNTIFS(G2:G18, "United States", K2:K18, "Mom"))</f>
         <v>1</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Mom") + COUNTIFS(F2:F18, "Finland", J2:J18, "Mom") + COUNTIFS(F2:F18, "Finland", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Mom") + COUNTIFS(G2:G18, "Finland", J2:J18, "Mom") + COUNTIFS(G2:G18, "Finland", K2:K18, "Mom"))</f>
         <v>1</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="9">
         <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Mom") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Mom") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Mom") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Mom") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Mom"))</f>
         <v>2</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="21">
+        <f>(COUNTIFS(F2:F18, "Germany", I2:I18, "Mom") + COUNTIFS(F2:F18, "Germany", J2:J18, "Mom") + COUNTIFS(F2:F18, "Germany", K2:K18, "Mom")) + (COUNTIFS(G2:G18, "Germany", I2:I18, "Mom") + COUNTIFS(G2:G18, "Germany", J2:J18, "Mom") + COUNTIFS(G2:G18, "Germany", K2:K18, "Mom"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
         <f>COUNTIF(I2:K18, "Mom")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.95" customHeight="1">
+    <row r="6" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1339,10 +1511,10 @@
       <c r="E6" s="1">
         <v>1930</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="4"/>
@@ -1357,47 +1529,51 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Canada", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Canada", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Canada", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Canada", K2:K18, "Patrick"))</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Patrick") + COUNTIFS(F2:F18, "USports", J2:J18, "Patrick") + COUNTIFS(F2:F18, "USports", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Patrick") + COUNTIFS(G2:G18, "USports", J2:J18, "Patrick") + COUNTIFS(G2:G18, "USports", K2:K18, "Patrick"))</f>
         <v>0</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="9">
         <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Patrick"))</f>
         <v>2</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="9">
         <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Patrick"))</f>
         <v>1</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="9">
         <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Patrick"))</f>
         <v>0</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Patrick") + COUNTIFS(F2:F18, "United States", J2:J18, "Patrick") + COUNTIFS(F2:F18, "United States", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Patrick") + COUNTIFS(G2:G18, "United States", J2:J18, "Patrick") + COUNTIFS(G2:G18, "United States", K2:K18, "Patrick"))</f>
         <v>1</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Finland", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Finland", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Finland", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Finland", K2:K18, "Patrick"))</f>
         <v>2</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="9">
         <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Patrick"))</f>
         <v>2</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="21">
+        <f>(COUNTIFS(F2:F18, "Germany", I2:I18, "Patrick") + COUNTIFS(F2:F18, "Germany", J2:J18, "Patrick") + COUNTIFS(F2:F18, "Germany", K2:K18, "Patrick")) + (COUNTIFS(G2:G18, "Germany", I2:I18, "Patrick") + COUNTIFS(G2:G18, "Germany", J2:J18, "Patrick") + COUNTIFS(G2:G18, "Germany", K2:K18, "Patrick"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
         <f>COUNTIF(I2:K18, "Patrick")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.95" customHeight="1">
+    <row r="7" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1413,63 +1589,67 @@
       <c r="E7" s="1">
         <v>1200</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Robert") + COUNTIFS(F2:F18, "Canada", J2:J18, "Robert") + COUNTIFS(F2:F18, "Canada", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Robert") + COUNTIFS(G2:G18, "Canada", J2:J18, "Robert") + COUNTIFS(G2:G18, "Canada", K2:K18, "Robert"))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Robert") + COUNTIFS(F2:F18, "USports", J2:J18, "Robert") + COUNTIFS(F2:F18, "USports", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Robert") + COUNTIFS(G2:G18, "USports", J2:J18, "Robert") + COUNTIFS(G2:G18, "USports", K2:K18, "Robert"))</f>
         <v>0</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="9">
         <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Robert") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Robert") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Robert") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Robert") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Robert"))</f>
         <v>1</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="9">
         <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Robert") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Robert") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Robert") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Robert") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Robert"))</f>
         <v>1</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="9">
         <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Robert") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Robert") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Robert") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Robert") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Robert"))</f>
         <v>0</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Robert") + COUNTIFS(F2:F18, "United States", J2:J18, "Robert") + COUNTIFS(F2:F18, "United States", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Robert") + COUNTIFS(G2:G18, "United States", J2:J18, "Robert") + COUNTIFS(G2:G18, "United States", K2:K18, "Robert"))</f>
         <v>0</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Robert") + COUNTIFS(F2:F18, "Finland", J2:J18, "Robert") + COUNTIFS(F2:F18, "Finland", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Robert") + COUNTIFS(G2:G18, "Finland", J2:J18, "Robert") + COUNTIFS(G2:G18, "Finland", K2:K18, "Robert"))</f>
         <v>1</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="9">
         <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Robert") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Robert") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Robert") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Robert") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Robert"))</f>
         <v>1</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="21">
+        <f>(COUNTIFS(F2:F18, "Germany", I2:I18, "Robert") + COUNTIFS(F2:F18, "Germany", J2:J18, "Robert") + COUNTIFS(F2:F18, "Germany", K2:K18, "Robert")) + (COUNTIFS(G2:G18, "Germany", I2:I18, "Robert") + COUNTIFS(G2:G18, "Germany", J2:J18, "Robert") + COUNTIFS(G2:G18, "Germany", K2:K18, "Robert"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
         <f>COUNTIF(I2:K18, "Robert")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.95" customHeight="1">
+    <row r="8" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,63 +1665,67 @@
       <c r="E8" s="1">
         <v>1700</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Alex") + COUNTIFS(F2:F18, "Canada", J2:J18, "Alex") + COUNTIFS(F2:F18, "Canada", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Alex") + COUNTIFS(G2:G18, "Canada", J2:J18, "Alex") + COUNTIFS(G2:G18, "Canada", K2:K18, "Alex"))</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Alex") + COUNTIFS(F2:F18, "USports", J2:J18, "Alex") + COUNTIFS(F2:F18, "USports", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Alex") + COUNTIFS(G2:G18, "USports", J2:J18, "Alex") + COUNTIFS(G2:G18, "USports", K2:K18, "Alex"))</f>
         <v>0</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="9">
         <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Alex") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Alex") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Alex") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Alex") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Alex"))</f>
         <v>0</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="9">
         <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Alex") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Alex") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Alex") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Alex") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Alex"))</f>
         <v>0</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="9">
         <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Alex") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Alex") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Alex") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Alex") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Alex"))</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="10">
+        <v>1</v>
+      </c>
+      <c r="U8" s="9">
         <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Alex") + COUNTIFS(F2:F18, "United States", J2:J18, "Alex") + COUNTIFS(F2:F18, "United States", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Alex") + COUNTIFS(G2:G18, "United States", J2:J18, "Alex") + COUNTIFS(G2:G18, "United States", K2:K18, "Alex"))</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="10">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9">
         <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Alex") + COUNTIFS(F2:F18, "Finland", J2:J18, "Alex") + COUNTIFS(F2:F18, "Finland", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Alex") + COUNTIFS(G2:G18, "Finland", J2:J18, "Alex") + COUNTIFS(G2:G18, "Finland", K2:K18, "Alex"))</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="10">
+        <v>1</v>
+      </c>
+      <c r="W8" s="9">
         <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Alex") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Alex") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Alex") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Alex") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Alex"))</f>
         <v>0</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="21">
+        <f>(COUNTIFS(F2:F18, "Germany", I2:I18, "Alex") + COUNTIFS(F2:F18, "Germany", J2:J18, "Alex") + COUNTIFS(F2:F18, "Germany", K2:K18, "Alex")) + (COUNTIFS(G2:G18, "Germany", I2:I18, "Alex") + COUNTIFS(G2:G18, "Germany", J2:J18, "Alex") + COUNTIFS(G2:G18, "Germany", K2:K18, "Alex"))</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="8">
         <f>COUNTIF(I2:K18, "Alex")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.95" customHeight="1">
+    <row r="9" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1557,25 +1741,25 @@
       <c r="E9" s="1">
         <v>1200</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="P9" s="1">
@@ -1610,12 +1794,16 @@
         <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Hayley") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Hayley") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Hayley")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Hayley") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Hayley") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Hayley"))</f>
         <v>0</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="21">
+        <f>(COUNTIFS(F2:F18, "Germany", I2:I18, "Hayley") + COUNTIFS(F2:F18, "Germany", J2:J18, "Hayley") + COUNTIFS(F2:F18, "Germany", K2:K18, "Hayley")) + (COUNTIFS(G2:G18, "Germany", I2:I18, "Hayley") + COUNTIFS(G2:G18, "Germany", J2:J18, "Hayley") + COUNTIFS(G2:G18, "Germany", K2:K18, "Hayley"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="8">
         <f>COUNTIF(I2:K18, "Hayley")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.95" customHeight="1">
+    <row r="10" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1631,222 +1819,231 @@
       <c r="E10" s="1">
         <v>1700</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="21">
+        <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "Kyle") + COUNTIFS(F2:F18, "Canada", J2:J18, "Kyle") + COUNTIFS(F2:F18, "Canada", K2:K18, "Kyle")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "Kyle") + COUNTIFS(G2:G18, "Canada", J2:J18, "Kyle") + COUNTIFS(G2:G18, "Canada", K2:K18, "Kyle"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21">
+        <f>(COUNTIFS(F2:F18, "USports", I2:I18, "Kyle") + COUNTIFS(F2:F18, "USports", J2:J18, "Kyle") + COUNTIFS(F2:F18, "USports", K2:K18, "Kyle")) + (COUNTIFS(G2:G18, "USports", I2:I18, "Kyle") + COUNTIFS(G2:G18, "USports", J2:J18, "Kyle") + COUNTIFS(G2:G18, "USports", K2:K18, "Kyle"))</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="21">
+        <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "Kyle") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "Kyle") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "Kyle")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "Kyle") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "Kyle") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "Kyle"))</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="21">
+        <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "Kyle") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "Kyle") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "Kyle")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "Kyle") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "Kyle") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "Kyle"))</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="21">
+        <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "Kyle") + COUNTIFS(F2:F18, "Sweden", J2:J18, "Kyle") + COUNTIFS(F2:F18, "Sweden", K2:K18, "Kyle")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "Kyle") + COUNTIFS(G2:G18, "Sweden", J2:J18, "Kyle") + COUNTIFS(G2:G18, "Sweden", K2:K18, "Kyle"))</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="21">
+        <f>(COUNTIFS(F2:F18, "United States", I2:I18, "Kyle") + COUNTIFS(F2:F18, "United States", J2:J18, "Kyle") + COUNTIFS(F2:F18, "United States", K2:K18, "Kyle")) + (COUNTIFS(G2:G18, "United States", I2:I18, "Kyle") + COUNTIFS(G2:G18, "United States", J2:J18, "Kyle") + COUNTIFS(G2:G18, "United States", K2:K18, "Kyle"))</f>
+        <v>1</v>
+      </c>
+      <c r="V10" s="21">
+        <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "Kyle") + COUNTIFS(F2:F18, "Finland", J2:J18, "Kyle") + COUNTIFS(F2:F18, "Finland", K2:K18, "Kyle")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "Kyle") + COUNTIFS(G2:G18, "Finland", J2:J18, "Kyle") + COUNTIFS(G2:G18, "Finland", K2:K18, "Kyle"))</f>
+        <v>1</v>
+      </c>
+      <c r="W10" s="21">
+        <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "Kyle") + COUNTIFS(F2:F18, "Latvia", J2:J18, "Kyle") + COUNTIFS(F2:F18, "Latvia", K2:K18, "Kyle")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "Kyle") + COUNTIFS(G2:G18, "Latvia", J2:J18, "Kyle") + COUNTIFS(G2:G18, "Latvia", K2:K18, "Kyle"))</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="21">
+        <f>(COUNTIFS(F2:F18, "Germany", I2:I18, "Kyle") + COUNTIFS(F2:F18, "Germany", J2:J18, "Kyle") + COUNTIFS(F2:F18, "Germany", K2:K18, "Kyle")) + (COUNTIFS(G2:G18, "Germany", I2:I18, "Kyle") + COUNTIFS(G2:G18, "Germany", J2:J18, "Kyle") + COUNTIFS(G2:G18, "Germany", K2:K18, "Kyle"))</f>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="8">
+        <f>COUNTIF(I2:K18, "Kyle")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1700</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="10">
+      <c r="J11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="9">
         <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Canada", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Canada", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Canada", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Canada", K2:K18, "SOLD"))</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q11" s="9">
         <f>(COUNTIFS(F2:F18, "USports", I2:I18, "SOLD") + COUNTIFS(F2:F18, "USports", J2:J18, "SOLD") + COUNTIFS(F2:F18, "USports", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "USports", I2:I18, "SOLD") + COUNTIFS(G2:G18, "USports", J2:J18, "SOLD") + COUNTIFS(G2:G18, "USports", K2:K18, "SOLD"))</f>
         <v>0</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R11" s="9">
         <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Switzerland", K2:K18, "SOLD"))</f>
         <v>0</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S11" s="9">
         <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Slovakia", K2:K18, "SOLD"))</f>
         <v>3</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T11" s="9">
         <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Sweden", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Sweden", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Sweden", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Sweden", K2:K18, "SOLD"))</f>
         <v>2</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U11" s="9">
         <f>(COUNTIFS(F2:F18, "United States", I2:I18, "SOLD") + COUNTIFS(F2:F18, "United States", J2:J18, "SOLD") + COUNTIFS(F2:F18, "United States", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "United States", I2:I18, "SOLD") + COUNTIFS(G2:G18, "United States", J2:J18, "SOLD") + COUNTIFS(G2:G18, "United States", K2:K18, "SOLD"))</f>
         <v>8</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V11" s="9">
         <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Finland", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Finland", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Finland", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Finland", K2:K18, "SOLD"))</f>
         <v>3</v>
       </c>
-      <c r="W10" s="10">
+      <c r="W11" s="9">
         <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Latvia", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Latvia", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Latvia", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Latvia", K2:K18, "SOLD"))</f>
         <v>0</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X11" s="21">
+        <f>(COUNTIFS(F2:F18, "Germany", I2:I18, "SOLD") + COUNTIFS(F2:F18, "Germany", J2:J18, "SOLD") + COUNTIFS(F2:F18, "Germany", K2:K18, "SOLD")) + (COUNTIFS(G2:G18, "Germany", I2:I18, "SOLD") + COUNTIFS(G2:G18, "Germany", J2:J18, "SOLD") + COUNTIFS(G2:G18, "Germany", K2:K18, "SOLD"))</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="12">
         <f>COUNTIF(I2:K18, "SOLD")</f>
         <v>8</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.95" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1">
+    <row r="12" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1">
         <v>2022</v>
       </c>
-      <c r="E11" s="1">
-        <v>1700</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="O11" s="12" t="s">
+      <c r="E12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="O12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P12" s="1">
         <f>(COUNTIFS(F2:F18, "Canada", I2:I18, "") + COUNTIFS(F2:F18, "Canada", J2:J18, "") + COUNTIFS(F2:F18, "Canada", K2:K18, "")) + (COUNTIFS(G2:G18, "Canada", I2:I18, "") + COUNTIFS(G2:G18, "Canada", J2:J18, "") + COUNTIFS(G2:G18, "Canada", K2:K18, ""))</f>
         <v>4</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q12" s="1">
         <f>(COUNTIFS(F2:F18, "USports", I2:I18, "") + COUNTIFS(F2:F18, "USports", J2:J18, "") + COUNTIFS(F2:F18, "USports", K2:K18, "")) + (COUNTIFS(G2:G18, "USports", I2:I18, "") + COUNTIFS(G2:G18, "USports", J2:J18, "") + COUNTIFS(G2:G18, "USports", K2:K18, ""))</f>
         <v>4</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R12" s="1">
         <f>(COUNTIFS(F2:F18, "Switzerland", I2:I18, "") + COUNTIFS(F2:F18, "Switzerland", J2:J18, "") + COUNTIFS(F2:F18, "Switzerland", K2:K18, "")) + (COUNTIFS(G2:G18, "Switzerland", I2:I18, "") + COUNTIFS(G2:G18, "Switzerland", J2:J18, "") + COUNTIFS(G2:G18, "Switzerland", K2:K18, ""))</f>
         <v>1</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S12" s="1">
         <f>(COUNTIFS(F2:F18, "Slovakia", I2:I18, "") + COUNTIFS(F2:F18, "Slovakia", J2:J18, "") + COUNTIFS(F2:F18, "Slovakia", K2:K18, "")) + (COUNTIFS(G2:G18, "Slovakia", I2:I18, "") + COUNTIFS(G2:G18, "Slovakia", J2:J18, "") + COUNTIFS(G2:G18, "Slovakia", K2:K18, ""))</f>
         <v>0</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T12" s="1">
         <f>(COUNTIFS(F2:F18, "Sweden", I2:I18, "") + COUNTIFS(F2:F18, "Sweden", J2:J18, "") + COUNTIFS(F2:F18, "Sweden", K2:K18, "")) + (COUNTIFS(G2:G18, "Sweden", I2:I18, "") + COUNTIFS(G2:G18, "Sweden", J2:J18, "") + COUNTIFS(G2:G18, "Sweden", K2:K18, ""))</f>
         <v>1</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U12" s="1">
         <f>(COUNTIFS(F2:F18, "United States", I2:I18, "") + COUNTIFS(F2:F18, "United States", J2:J18, "") + COUNTIFS(F2:F18, "United States", K2:K18, "")) + (COUNTIFS(G2:G18, "United States", I2:I18, "") + COUNTIFS(G2:G18, "United States", J2:J18, "") + COUNTIFS(G2:G18, "United States", K2:K18, ""))</f>
         <v>2</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V12" s="1">
         <f>(COUNTIFS(F2:F18, "Finland", I2:I18, "") + COUNTIFS(F2:F18, "Finland", J2:J18, "") + COUNTIFS(F2:F18, "Finland", K2:K18, "")) + (COUNTIFS(G2:G18, "Finland", I2:I18, "") + COUNTIFS(G2:G18, "Finland", J2:J18, "") + COUNTIFS(G2:G18, "Finland", K2:K18, ""))</f>
         <v>1</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W12" s="1">
         <f>(COUNTIFS(F2:F18, "Latvia", I2:I18, "") + COUNTIFS(F2:F18, "Latvia", J2:J18, "") + COUNTIFS(F2:F18, "Latvia", K2:K18, "")) + (COUNTIFS(G2:G18, "Latvia", I2:I18, "") + COUNTIFS(G2:G18, "Latvia", J2:J18, "") + COUNTIFS(G2:G18, "Latvia", K2:K18, ""))</f>
         <v>1</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X12" s="21">
+        <f>(COUNTIFS(F2:F18, "Germany", I2:I18, "") + COUNTIFS(F2:F18, "Germany", J2:J18, "") + COUNTIFS(F2:F18, "Germany", K2:K18, "")) + (COUNTIFS(G2:G18, "Germany", I2:I18, "") + COUNTIFS(G2:G18, "Germany", J2:J18, "") + COUNTIFS(G2:G18, "Germany", K2:K18, ""))</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
         <f>COUNTBLANK(I2:K18)</f>
-        <v>9</v>
-      </c>
-      <c r="Y11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.95" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="O12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="11">
-        <f t="shared" ref="P12:X12" si="0">SUM(P3:P11)</f>
-        <v>12</v>
-      </c>
-      <c r="Q12" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R12" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S12" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="T12" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U12" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="V12" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="W12" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="X12" s="14">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.95" customHeight="1">
+    <row r="13" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1862,255 +2059,303 @@
       <c r="E13" s="1">
         <v>1700</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="10">
+        <f>SUM(P3:P12)</f>
+        <v>12</v>
+      </c>
+      <c r="Q13" s="10">
+        <f>SUM(Q3:Q12)</f>
+        <v>6</v>
+      </c>
+      <c r="R13" s="10">
+        <f>SUM(R3:R12)</f>
+        <v>15</v>
+      </c>
+      <c r="S13" s="10">
+        <f>SUM(S3:S12)</f>
+        <v>15</v>
+      </c>
+      <c r="T13" s="10">
+        <f>SUM(T3:T12)</f>
+        <v>6</v>
+      </c>
+      <c r="U13" s="10">
+        <f>SUM(U3:U12)</f>
+        <v>18</v>
+      </c>
+      <c r="V13" s="10">
+        <f>SUM(V3:V12)</f>
+        <v>15</v>
+      </c>
+      <c r="W13" s="10">
+        <f>SUM(W3:W12)</f>
+        <v>12</v>
+      </c>
+      <c r="X13" s="10">
+        <f>SUM(X3:X12)</f>
+        <v>3</v>
+      </c>
+      <c r="Y13" s="13">
+        <f>SUM(Y3:Y12)</f>
+        <v>51</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="18">
-        <f t="shared" ref="P13:W13" si="1">P10/P12</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="18">
+      <c r="P14" s="17">
+        <f t="shared" ref="P14:W14" si="0">P11/P13</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="V14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="W14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="17">
+        <f>X11/X13</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="O15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="17">
+        <f t="shared" ref="P15:W15" si="1">(P13-P11) / P13</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="18">
+        <v>1</v>
+      </c>
+      <c r="R15" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="18">
+        <v>1</v>
+      </c>
+      <c r="S15" s="17">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="T13" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="T15" s="17">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U15" s="17">
         <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="V13" s="18">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="V15" s="17">
         <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="W13" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="W15" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="17">
+        <f>(X13-X11) / X13</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="7"/>
+      <c r="Z15" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="15.95" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1">
+    <row r="16" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
         <v>2022</v>
       </c>
-      <c r="E14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="O14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="18">
-        <f t="shared" ref="P14:W14" si="2">(P12-P10) / P12</f>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="18">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="T14" s="18">
+      <c r="E16" s="1">
+        <v>1700</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="17">
+        <f t="shared" ref="P16:W16" si="2">(P13-P12) / P13</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q16" s="17">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U14" s="18">
+      <c r="R16" s="17">
         <f t="shared" si="2"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="V14" s="18">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="S16" s="17">
         <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="W14" s="18">
+        <v>1</v>
+      </c>
+      <c r="T16" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="8"/>
-      <c r="Y14" t="s">
-        <v>52</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U16" s="17">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="V16" s="17">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="W16" s="17">
+        <f t="shared" si="2"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="X16" s="17">
+        <f>(X13-X12) / X13</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="7"/>
+      <c r="Z16" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.95" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="O15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="19">
-        <f t="shared" ref="P15:W15" si="3">(P12-P11) / P12</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q15" s="19">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R15" s="19">
-        <f t="shared" si="3"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="S15" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="19">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U15" s="19">
-        <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="V15" s="19">
-        <f t="shared" si="3"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="W15" s="19">
-        <f t="shared" si="3"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="X15" s="8"/>
-      <c r="Y15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.95" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1700</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.95" customHeight="1">
+    <row r="17" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,20 +2371,37 @@
       <c r="E17" s="1">
         <v>1200</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>3</v>
+      </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:21" ht="15.95" customHeight="1">
+    <row r="18" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2155,23 +2417,29 @@
       <c r="E18" s="1">
         <v>1700</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
         <f>COUNTA(I2:K18) + COUNTBLANK(I2:K18)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.95" customHeight="1" thickBot="1">
+    <row r="19" spans="1:25" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2185,14 +2453,14 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1">
         <f>COUNTA(I2:K18)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M19" s="1">
         <f>Table1[[#Totals],[4]]/M18</f>
-        <v>0.82352941176470584</v>
+        <v>0.86274509803921573</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:25" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2205,8 +2473,11 @@
       <c r="R20" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="S20" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="21" spans="1:25" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O21" s="3">
         <v>2002</v>
       </c>
@@ -2216,84 +2487,103 @@
       </c>
       <c r="Q21" s="3">
         <f>O21/Table1[[#Totals],[4]]</f>
-        <v>47.666666666666664</v>
+        <v>45.5</v>
       </c>
       <c r="R21" s="3">
         <f>O21*Table1[[#Totals],[5]]</f>
-        <v>1648.705882352941</v>
+        <v>1727.2156862745098</v>
+      </c>
+      <c r="S21" s="3">
+        <f>O21-R21</f>
+        <v>274.78431372549016</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="22" spans="1:25" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O22" s="3">
-        <f>O21-S24</f>
-        <v>1682</v>
+        <f>O21-T24</f>
+        <v>1762</v>
       </c>
       <c r="P22" s="3">
         <f>O22/M18</f>
-        <v>32.980392156862742</v>
+        <v>34.549019607843135</v>
       </c>
       <c r="Q22" s="3">
         <f>O22/Table1[[#Totals],[4]]</f>
-        <v>40.047619047619051</v>
+        <v>40.045454545454547</v>
       </c>
       <c r="R22" s="3">
         <f>O22*Table1[[#Totals],[5]]</f>
-        <v>1385.1764705882351</v>
+        <v>1520.1568627450981</v>
+      </c>
+      <c r="S22" s="3">
+        <f>O22-R22</f>
+        <v>241.84313725490188</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="S23" s="2" t="s">
+    <row r="23" spans="1:25" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="S24" s="3">
-        <f>COUNTIF(I2:K18, "SOLD") *T24</f>
-        <v>320</v>
-      </c>
+    <row r="24" spans="1:25" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T24" s="3">
-        <v>40</v>
+        <f>COUNTIF(I2:K18, "SOLD") *U24</f>
+        <v>240</v>
       </c>
       <c r="U24" s="3">
-        <f>O21-S24</f>
-        <v>1682</v>
+        <f>40*(3/4)</f>
+        <v>30</v>
+      </c>
+      <c r="V24" s="3">
+        <f>O21-T24</f>
+        <v>1762</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.95" customHeight="1" thickTop="1"/>
+    <row r="25" spans="1:25" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:H1048576 P1:W1">
-    <cfRule type="cellIs" dxfId="34" priority="66" operator="equal">
+  <conditionalFormatting sqref="F1:H1048576 P1:X1">
+    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
       <formula>"Finland"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="69" operator="equal">
       <formula>"Slovakia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="70" operator="equal">
       <formula>"Latvia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="71" operator="equal">
       <formula>"Sweden"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="72" operator="equal">
       <formula>"United States"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="73" operator="equal">
       <formula>"Switzerland"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="74" operator="equal">
       <formula>"Canada"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:H18 P1:W1">
-    <cfRule type="cellIs" dxfId="27" priority="65" operator="equal">
+  <conditionalFormatting sqref="F2:H18 P1:X1">
+    <cfRule type="cellIs" dxfId="27" priority="67" operator="equal">
       <formula>"USports"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G18">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+      <formula>"Germany"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"Germany"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
